--- a/project/excel/synbio_bestof.xlsx
+++ b/project/excel/synbio_bestof.xlsx
@@ -4,25 +4,29 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ModCollection" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Modification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ntseq" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="OmniCollection" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Organism" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Part" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Person" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SeqCollection" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ModCollection1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Modification1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Ntseq1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="OmniCollection1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Organism1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Part1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Person1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SeqCollection1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="ArabadopsisSeeds" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BiologicalSamples" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Database" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Modification" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NamedThing" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Organism" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PartsComments" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PartsSequence" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Person" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Strain" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ArabadopsisSeeds1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BiologicalSamples1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Database1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Modification1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NamedThing1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Organism1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PartsComments1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="PartsSequence1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Person1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Strain1" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,26 +439,175 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>modifications</t>
+          <t>Strain_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bio_safety_level</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>funding_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>genotype_phenotype</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>host_organism</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>intellectual_property</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>principal_investigator</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>references</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sub_parts</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>parent_parts</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AK1"/>
+  <dataValidations count="6">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Level 1,Level 2"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"IARPA-FELIX"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M2:M1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"In Progress,Abandoned"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Level 1,Level 2"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"IARPA-FELIX"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M2:M1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"In Progress,Abandoned"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,187 +618,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>aa_change</t>
+          <t>Database_strain_set</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bio_safety_level</t>
+          <t>Database_modification_set</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>Database_organism_set</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>creator_id</t>
+          <t>Database_person_set</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>descriptor</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>element</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>element_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>element_id_number</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>element_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>element_species</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>mod_alias</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>modification_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>modification_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>principal_investigator</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>SC_curated_enzyme_name</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>SC_curated_gene_name</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>SC_curated_protein_name</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>SC_curated_uniprot_id</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>seq2ids_alias</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>seq2ids_all_go</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>seq2ids_bitscore</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>seq2ids_blast_db</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>seq2ids_gene_name_1ry</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>seq2ids_gene_names</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>seq2ids_organism</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>seq2ids_prot_function</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>seq2ids_prot_names</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>seq2ids_sacc</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>subcategory_size</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>type</t>
+          <t>Database_sequence_set</t>
         </is>
       </c>
     </row>
@@ -654,13 +647,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,37 +664,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>seq_id</t>
+          <t>Modification_aa_change</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>part_id</t>
+          <t>Modification_bio_safety_level</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>Modification_category</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>seq_name</t>
+          <t>Modification_creator</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>seq_type</t>
+          <t>Modification_descriptor</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>date_added</t>
+          <t>Modification_el_name_long</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>Modification_el_name_short</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Modification_element_organism</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>modification_type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Modification_modifications_genes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Modification_notes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Modification_position</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Modification_principal_investigator</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Modification_size_bp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Modification_status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Modification_subcategory_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Modification_id</t>
         </is>
       </c>
     </row>
@@ -710,13 +753,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,12 +770,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>modifications</t>
+          <t>NamedThing_id</t>
         </is>
       </c>
     </row>
@@ -741,13 +779,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,17 +796,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>organism_id</t>
+          <t>Organism_abbreviation</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NCBI_id</t>
+          <t>Organism_strain_value</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>Organism_comment</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Organism_species_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Organism_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Organism_special_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Organism_species_ncbi_taxon_number</t>
         </is>
       </c>
     </row>
@@ -777,13 +835,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,77 +870,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>alias</t>
+          <t>PartsSequence_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bio_safety_level</t>
+          <t>PartsSequence_associated_part</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>seq_name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>funding_source</t>
+          <t>seq_type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>genotype_phenotype</t>
+          <t>date_added</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>intellectual_property</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>part_id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>part_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>part_type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>principal_investigator</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>references</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>summary</t>
+          <t>nt_sequence</t>
         </is>
       </c>
     </row>
@@ -873,13 +904,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,57 +921,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>person_id</t>
+          <t>Person_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>person_name</t>
+          <t>Person_date_joined</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>Person_email</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>Person_first_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>last_login</t>
+          <t>Person_is_staff</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_superuser</t>
+          <t>Person_is_superuser</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>Person_last_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_staff</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_active</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>date_joined</t>
+          <t>Person_username</t>
         </is>
       </c>
     </row>
@@ -949,13 +965,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,7 +1000,82 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sequences</t>
+          <t>Strain_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bio_safety_level</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>creator</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>funding_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>genotype_phenotype</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>host_organism</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>intellectual_property</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>principal_investigator</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>references</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sub_parts</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>parent_parts</t>
         </is>
       </c>
     </row>
@@ -975,13 +1084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AK1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,187 +1101,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>aa_change</t>
+          <t>Database_strain_set</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bio_safety_level</t>
+          <t>Database_modification_set</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>Database_organism_set</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>creator_id</t>
+          <t>Database_person_set</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>descriptor</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>element</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>element_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>element_id_number</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>element_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>element_species</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>mod_alias</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>modification_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>modification_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>principal_investigator</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>SC_curated_enzyme_name</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>SC_curated_gene_name</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>SC_curated_protein_name</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>SC_curated_uniprot_id</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>seq2ids_alias</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>seq2ids_all_go</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>seq2ids_bitscore</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>seq2ids_blast_db</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>seq2ids_gene_name_1ry</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>seq2ids_gene_names</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>seq2ids_organism</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>seq2ids_prot_function</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>seq2ids_prot_names</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>seq2ids_sacc</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>subcategory_size</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>type</t>
+          <t>Database_sequence_set</t>
         </is>
       </c>
     </row>
@@ -1181,13 +1130,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,52 +1147,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>seq_id</t>
+          <t>Modification_aa_change</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>part_id</t>
+          <t>Modification_bio_safety_level</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>Modification_category</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>seq_name</t>
+          <t>Modification_creator</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>seq_type</t>
+          <t>Modification_descriptor</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>date_added</t>
+          <t>Modification_el_name_long</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>Modification_el_name_short</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Modification_element_organism</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>modification_type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Modification_modifications_genes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Modification_notes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Modification_position</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Modification_principal_investigator</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Modification_size_bp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Modification_status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Modification_subcategory_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Modification_id</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dataValidations count="10">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Level 1,Level 2"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"antibiotic resistance,biosynthetic,compound,control element,fluorescent/epitope,GOI,origin/structural,promoter,terminator,toxin/virulence"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"3pUTR,5pUTR,activiation domain,CDS,CDSpartial,CDSpartial-3prime,CDSpartial-5prime,eGFP,enhancer,epitope,fragment,G,gene,insertion site,multiple cloning site,opt,promoter,ribosomal binding site,scar,SUMO,terminator,VP16"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"amber stop codon,CDSpartial,chrXIII-chrII,compound deletion,compound insertion,deletion,fluorescent/epitope,frameshift,in-frame deletion,insertion,insertion site,inversion,ochre stop codon,plasmid,plasmid element,reassortment,substitution,substitution transition,substitution transversion,subtitutions,transition,transition plasmid element"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"In Progress,Abandoned"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Level 1,Level 2"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"antibiotic resistance,biosynthetic,compound,control element,fluorescent/epitope,GOI,origin/structural,promoter,terminator,toxin/virulence"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"3pUTR,5pUTR,activiation domain,CDS,CDSpartial,CDSpartial-3prime,CDSpartial-5prime,eGFP,enhancer,epitope,fragment,G,gene,insertion site,multiple cloning site,opt,promoter,ribosomal binding site,scar,SUMO,terminator,VP16"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"amber stop codon,CDSpartial,chrXIII-chrII,compound deletion,compound insertion,deletion,fluorescent/epitope,frameshift,in-frame deletion,insertion,insertion site,inversion,ochre stop codon,plasmid,plasmid element,reassortment,substitution,substitution transition,substitution transversion,subtitutions,transition,transition plasmid element"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"In Progress,Abandoned"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,12 +1285,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>modifications</t>
+          <t>NamedThing_id</t>
         </is>
       </c>
     </row>
@@ -1268,13 +1294,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,17 +1311,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>organism_id</t>
+          <t>Organism_abbreviation</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NCBI_id</t>
+          <t>Organism_strain_value</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>Organism_comment</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Organism_species_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Organism_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Organism_special_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Organism_species_ncbi_taxon_number</t>
         </is>
       </c>
     </row>
@@ -1304,13 +1350,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,92 +1385,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>alias</t>
+          <t>PartsSequence_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bio_safety_level</t>
+          <t>PartsSequence_associated_part</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>seq_name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>funding_source</t>
+          <t>seq_type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>genotype_phenotype</t>
+          <t>date_added</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>intellectual_property</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>part_id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>part_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>part_type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>principal_investigator</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>references</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>summary</t>
+          <t>nt_sequence</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"deletion,sequence,insertion,flank1,flank2"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"deletion,sequence,insertion,flank1,flank2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,113 +1444,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>person_id</t>
+          <t>Person_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>person_name</t>
+          <t>Person_date_joined</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>Person_email</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>Person_first_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>last_login</t>
+          <t>Person_is_staff</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_superuser</t>
+          <t>Person_is_superuser</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>Person_last_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_staff</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_active</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>date_joined</t>
+          <t>Person_username</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>modifications</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/synbio_bestof.xlsx
+++ b/project/excel/synbio_bestof.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,11 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>parent_parts</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>Modification_id</t>
         </is>
       </c>
@@ -785,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,15 +821,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>taxid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Organism_id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Organism_special_name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Organism_species_ncbi_taxon_number</t>
         </is>
@@ -1136,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,6 +1236,11 @@
         </is>
       </c>
       <c r="Q1" t="inlineStr">
+        <is>
+          <t>parent_parts</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
         <is>
           <t>Modification_id</t>
         </is>
@@ -1300,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1331,15 +1346,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>taxid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Organism_id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Organism_special_name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Organism_species_ncbi_taxon_number</t>
         </is>
